--- a/input_folder/orderdummy.xlsx
+++ b/input_folder/orderdummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Documents/stock_import/input_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033ABDCE-7305-7044-A7B6-81759A1FEC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD9C9EB-A08E-1649-B3DA-2F17D30126AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="4140" windowWidth="27320" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="3640" windowWidth="27320" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="336">
   <si>
     <t>To:</t>
   </si>
@@ -8295,7 +8295,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>330334</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8327,6 +8327,2372 @@
         <a:xfrm>
           <a:off x="3014755" y="5866652"/>
           <a:ext cx="1093321" cy="699382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 40960" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\VH8SI%O&lt;WF2[LC4{TGS90.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2BF6F8-9C2D-074F-B93E-8B40FE24FB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 78606" descr="0I`JG0}W$Q[O`W56)KD[U">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEBB16A-077F-7947-927C-889BC925FBC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="266700" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 71680" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\E9$U090C7S[E_`ULCC4Bm.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C206E40-7D15-DC40-99D5-256F71BDE8C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="1101725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 79110" descr="clip_image40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094553D7-B0A1-124C-B3CB-3395574D3541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="314325" cy="1101725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 131072" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\[3W~AHBV$7L7]~yP{GX5F.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC92C1C-9E33-1240-B718-7AF69C50884F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 3074" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\_C0_6YYGB~S~ZD~JGSD1S.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4FCB80-49AC-1547-9766-06BA3E0E5B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 1332" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\9FSY]85LMJ}9GJ1L$N_P7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A661F457-E875-E74C-9B19-F3D2E3E4B73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 1336" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\8EU[65YUX&quot;`ME2]3S72(A.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88D72C6-6223-1349-A51D-B3AEEB4D3500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 7010" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\YUW1VU)32ER@1?XL{N`)D.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F1F252-9383-EE4D-8DD9-59D283FEE61D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 18433" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\X&#10;EF@XCR{DY3F$TL8UCU9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58616374-FB05-A344-9EF0-BDE4E5268DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 40960" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\VH8SI%O&lt;WF2[LC4{TGS90.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D7F76B-0264-AD4A-B42B-5846F4854B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 78606" descr="0I`JG0}W$Q[O`W56)KD[U">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3998A839-B209-1545-B1F2-78873AAE6B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="266700" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 71680" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\E9$U090C7S[E_`ULCC4Bm.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5A9BF4-4CF5-E14D-B3F4-72B2C1355B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="1101725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 79110" descr="clip_image40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9973430F-0288-CE4C-85D6-26850B343111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="314325" cy="1101725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 131072" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\[3W~AHBV$7L7]~yP{GX5F.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A0089E-5ED4-C546-B071-2CE3EDF4D12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 3074" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\_C0_6YYGB~S~ZD~JGSD1S.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B467941-A7E8-6343-8BBD-9A0C6C57DEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 1332" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\9FSY]85LMJ}9GJ1L$N_P7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EBBD3B-3838-A04A-923F-C5F24DA01429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 1336" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\8EU[65YUX&quot;`ME2]3S72(A.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F06856-4F17-6D42-BA8B-AAE074B7AA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 7010" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\YUW1VU)32ER@1?XL{N`)D.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6901CE1-E3D3-524E-9167-FDCC31AFDFC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 18433" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\X&#10;EF@XCR{DY3F$TL8UCU9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76987A1-E0B2-5C42-B455-B4F9535E799F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 40960" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\VH8SI%O&lt;WF2[LC4{TGS90.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD283B8-289A-9545-B98B-A1CED5DA5356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 78606" descr="0I`JG0}W$Q[O`W56)KD[U">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90CA835-EBA6-F94B-B02A-D1EA359C6494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="266700" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 71680" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\E9$U090C7S[E_`ULCC4Bm.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D697C1-6E33-6046-9D04-4C08088A758A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="1101725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 79110" descr="clip_image40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA0C3B9-A9F5-A547-92FB-FCC365A24680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="314325" cy="1101725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 131072" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\[3W~AHBV$7L7]~yP{GX5F.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30073D85-7AAE-E543-99D5-9FE777CA5338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 3074" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\_C0_6YYGB~S~ZD~JGSD1S.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7446AF25-E0D3-2144-8D25-8322C027DBB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 1332" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\9FSY]85LMJ}9GJ1L$N_P7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FD44D8-EF0F-B649-87FC-4D738BDE2184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 1336" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\8EU[65YUX&quot;`ME2]3S72(A.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4875E384-CE3B-B849-B1E7-1B421AB256B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 7010" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\YUW1VU)32ER@1?XL{N`)D.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B043ADB-254D-B046-A6C0-E2A837343752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 18433" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\X&#10;EF@XCR{DY3F$TL8UCU9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB957934-1630-B240-92C4-97497D02E2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="AutoShape 40960" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\VH8SI%O&lt;WF2[LC4{TGS90.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FED892F-9B0A-2F40-8A5E-91AEF921B70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 78606" descr="0I`JG0}W$Q[O`W56)KD[U">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E99D41A-D358-384F-A255-519590F6664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="266700" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="AutoShape 71680" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\E9$U090C7S[E_`ULCC4Bm.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16B5830-2D3B-A84B-9543-F9F6EF425A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="1101725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 79110" descr="clip_image40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632AE6D6-D394-7C4F-B553-5624E1DBC08F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="314325" cy="1101725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 131072" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\[3W~AHBV$7L7]~yP{GX5F.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F25A9F-CF61-0D4D-9B1C-3259265F4612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="AutoShape 3074" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\_C0_6YYGB~S~ZD~JGSD1S.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F71B8E-060D-5940-8EAB-71EC91441BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="AutoShape 1332" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\9FSY]85LMJ}9GJ1L$N_P7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DAEABF-8551-2E4E-ABB8-12E6847DC44A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="AutoShape 1336" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\453990757\QQ\WinTemp\RichOle\8EU[65YUX&quot;`ME2]3S72(A.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613A19E1-6327-BA4B-A4B5-7907C430D497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="AutoShape 7010" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\YUW1VU)32ER@1?XL{N`)D.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB931EA-F727-0044-BB66-EDA319BF0CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="1092200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="AutoShape 18433" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\453990757\QQ\WinTemp\RichOle\X&#10;EF@XCR{DY3F$TL8UCU9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC88314F-C9CD-494E-9F2E-FAB874ABCC5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="1485900"/>
+          <a:ext cx="304800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4D4109-3BF7-394A-BC68-2EB86902FA3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3492500" y="2501152"/>
+          <a:ext cx="0" cy="369048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11562,8 +13928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36AD90F-A5C2-3E48-8201-0DCAFBCAD6B4}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11776,7 +14142,7 @@
         <v>15.6</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J5" si="1">I4*H4</f>
+        <f t="shared" ref="J4" si="1">I4*H4</f>
         <v>187.2</v>
       </c>
       <c r="K4" t="s">
@@ -11808,16 +14174,16 @@
     </row>
     <row r="5" spans="1:18" ht="32" customHeight="1">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
@@ -11832,11 +14198,37 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>12.3</v>
+        <v>15.6</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>147.60000000000002</v>
+        <f t="shared" ref="J5" si="2">I5*H5</f>
+        <v>187.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L5" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5">
+        <v>3456</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5" si="3">M5*1.1</f>
+        <v>3801.6000000000004</v>
+      </c>
+      <c r="O5">
+        <v>3457</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5" si="4">O5*1.1</f>
+        <v>3802.7000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
